--- a/SNPS/SNPS.xlsx
+++ b/SNPS/SNPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/SNPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1057" documentId="8_{DB60A68D-1C08-4DB6-9C6C-CB349F343074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D0A58C8-A253-40FE-B176-EBA566B248FC}"/>
+  <xr:revisionPtr revIDLastSave="1067" documentId="8_{DB60A68D-1C08-4DB6-9C6C-CB349F343074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A9ED355-2B47-4A58-8896-0EAC267D5D9D}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="1670" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{A1496162-7AF9-4C33-91A9-5CCDC5AAB7B2}"/>
+    <workbookView xWindow="38290" yWindow="300" windowWidth="38620" windowHeight="21820" activeTab="2" xr2:uid="{A1496162-7AF9-4C33-91A9-5CCDC5AAB7B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -748,11 +748,11 @@
     <v>4</v>
     <v>629.38</v>
     <v>360.36500000000001</v>
-    <v>1.0544</v>
-    <v>-11.76</v>
-    <v>4.5669999999999999E-3</v>
-    <v>-2.0315E-2</v>
-    <v>2.59</v>
+    <v>1.0548999999999999</v>
+    <v>8.34</v>
+    <v>1.825E-3</v>
+    <v>1.4705999999999999E-2</v>
+    <v>1.05</v>
     <v>USD</v>
     <v>Synopsys, Inc. is engaged in supplying the electronic design automation (EDA) software that engineers use to design and test integrated circuits (ICs), chips or silicon. The Company provides software and hardware used to validate the electronic systems that incorporate chips and the software that runs on them, including cloud-based digital design flow to boost chip-design development productivity. It also provides technical services and support. The Company has three segments. Design Automation segment includes its advanced silicon design, verification products and services, system integration products and services, digital, custom and FPGA IC design software, verification software and hardware products, manufacturing software products, and other. Design IP segment includes its Design IP products. Software Integrity segment includes solutions that test software code for security vulnerabilities and quality defects, as well as professional and managed services.</v>
     <v>20300</v>
@@ -760,25 +760,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>675 Almanor Ave, SUNNYVALE, CA, 94085 US</v>
-    <v>592.71</v>
+    <v>578.9</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45386.998675659372</v>
+    <v>45387.99932572891</v>
     <v>0</v>
-    <v>567.02</v>
-    <v>86509057707</v>
+    <v>570.08010000000002</v>
+    <v>87781270000</v>
     <v>SYNOPSYS, INC.</v>
     <v>SYNOPSYS, INC.</v>
-    <v>590</v>
-    <v>64.908299999999997</v>
-    <v>578.87</v>
+    <v>571.02</v>
+    <v>63.589700000000001</v>
     <v>567.11</v>
-    <v>569.70000000000005</v>
+    <v>575.45000000000005</v>
+    <v>576.5</v>
     <v>152543700</v>
     <v>SNPS</v>
     <v>SYNOPSYS, INC. (XNAS:SNPS)</v>
-    <v>982951</v>
-    <v>970997</v>
+    <v>774112</v>
+    <v>986743</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B2" s="17" cm="1">
         <f t="array" ref="B2">_FV(B1,"Price")</f>
-        <v>567.11</v>
+        <v>575.45000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="B4" s="18">
         <f>B2*B3</f>
-        <v>86509.057707</v>
+        <v>87781.272165000002</v>
       </c>
       <c r="C4" t="s">
         <v>120</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B7" s="18">
         <f>B4-B5+B6</f>
-        <v>85520.567706999995</v>
+        <v>86792.782164999997</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1526,10 +1526,10 @@
   <dimension ref="B1:X153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="I139" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="F77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N151" sqref="N151"/>
+      <selection pane="bottomRight" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
